--- a/DPFSP-PTM/Results/Small/Small-IG_LBBD.xlsx
+++ b/DPFSP-PTM/Results/Small/Small-IG_LBBD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github upload\Algorithm-Data-Results\DPFSP_PTM\Results\Small\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\LBBD\Results\合并数据\Small\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD97E8EF-CB3F-425A-91DE-FA32274E13C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7872F69D-C007-4E18-AF0F-873734C1A81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2436" yWindow="1332" windowWidth="17280" windowHeight="10212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IG_LBBD" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>Column1</t>
   </si>
@@ -646,6 +646,18 @@
   </si>
   <si>
     <t>I_20_4_4_5</t>
+  </si>
+  <si>
+    <t>#OPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1008,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D8B7A1-223F-4674-802E-EE2D26199AA3}">
-  <dimension ref="A1:J182"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1020,7 +1032,7 @@
     <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1052,7 +1064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1083,8 +1095,17 @@
       <c r="J2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>200</v>
+      </c>
+      <c r="M2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1115,8 +1136,20 @@
       <c r="J3">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <f>COUNTIF(D3:D182,0)</f>
+        <v>120</v>
+      </c>
+      <c r="M3">
+        <f>AVERAGE(D3:D182)</f>
+        <v>0.73195299521666679</v>
+      </c>
+      <c r="N3">
+        <f>AVERAGE(E3:E182)</f>
+        <v>233.01822222222222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1148,7 +1181,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1180,7 +1213,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1212,7 +1245,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1244,7 +1277,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1276,7 +1309,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1308,7 +1341,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1334,13 +1367,13 @@
         <v>3</v>
       </c>
       <c r="I10">
-        <v>351.71000000000004</v>
+        <v>351.71</v>
       </c>
       <c r="J10">
         <v>1.81</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1372,7 +1405,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1404,7 +1437,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1436,7 +1469,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1468,7 +1501,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1500,7 +1533,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1526,7 +1559,7 @@
         <v>5</v>
       </c>
       <c r="I16">
-        <v>350.33000000000004</v>
+        <v>350.33</v>
       </c>
       <c r="J16">
         <v>2.41</v>
@@ -1782,7 +1815,7 @@
         <v>53</v>
       </c>
       <c r="I24">
-        <v>418.07000000000011</v>
+        <v>410.5</v>
       </c>
       <c r="J24">
         <v>2.7</v>
@@ -1846,7 +1879,7 @@
         <v>27</v>
       </c>
       <c r="I26">
-        <v>428.16</v>
+        <v>423.3</v>
       </c>
       <c r="J26">
         <v>2.7</v>
@@ -1878,7 +1911,7 @@
         <v>47</v>
       </c>
       <c r="I27">
-        <v>475.4500000000001</v>
+        <v>474.83</v>
       </c>
       <c r="J27">
         <v>2.7</v>
@@ -1910,7 +1943,7 @@
         <v>53</v>
       </c>
       <c r="I28">
-        <v>409.93000000000006</v>
+        <v>409.93</v>
       </c>
       <c r="J28">
         <v>3.61</v>
@@ -2262,7 +2295,7 @@
         <v>46</v>
       </c>
       <c r="I39">
-        <v>487.42000000000007</v>
+        <v>487.42</v>
       </c>
       <c r="J39">
         <v>3.61</v>
@@ -2294,7 +2327,7 @@
         <v>99</v>
       </c>
       <c r="I40">
-        <v>464.03</v>
+        <v>456.58</v>
       </c>
       <c r="J40">
         <v>3.61</v>
@@ -2390,7 +2423,7 @@
         <v>27</v>
       </c>
       <c r="I43">
-        <v>480.5</v>
+        <v>468.73</v>
       </c>
       <c r="J43">
         <v>4.8099999999999996</v>
@@ -2550,7 +2583,7 @@
         <v>2</v>
       </c>
       <c r="I48">
-        <v>634.66000000000008</v>
+        <v>634.66</v>
       </c>
       <c r="J48">
         <v>1.69</v>
@@ -2710,7 +2743,7 @@
         <v>5</v>
       </c>
       <c r="I53">
-        <v>533.67000000000007</v>
+        <v>532.22</v>
       </c>
       <c r="J53">
         <v>2.5299999999999998</v>
@@ -2742,7 +2775,7 @@
         <v>2</v>
       </c>
       <c r="I54">
-        <v>455.21</v>
+        <v>435.3</v>
       </c>
       <c r="J54">
         <v>2.5299999999999998</v>
@@ -2774,7 +2807,7 @@
         <v>18</v>
       </c>
       <c r="I55">
-        <v>434.81</v>
+        <v>434.03</v>
       </c>
       <c r="J55">
         <v>2.5299999999999998</v>
@@ -2806,7 +2839,7 @@
         <v>3</v>
       </c>
       <c r="I56">
-        <v>490.44000000000005</v>
+        <v>490.44</v>
       </c>
       <c r="J56">
         <v>2.5299999999999998</v>
@@ -2838,7 +2871,7 @@
         <v>9</v>
       </c>
       <c r="I57">
-        <v>522.55000000000007</v>
+        <v>499.5</v>
       </c>
       <c r="J57">
         <v>2.5299999999999998</v>
@@ -2870,7 +2903,7 @@
         <v>8</v>
       </c>
       <c r="I58">
-        <v>493.0499999999999</v>
+        <v>482.95</v>
       </c>
       <c r="J58">
         <v>3.38</v>
@@ -2966,7 +2999,7 @@
         <v>2</v>
       </c>
       <c r="I61">
-        <v>447.79</v>
+        <v>445.72</v>
       </c>
       <c r="J61">
         <v>3.38</v>
@@ -2998,7 +3031,7 @@
         <v>15</v>
       </c>
       <c r="I62">
-        <v>468.66</v>
+        <v>467.03</v>
       </c>
       <c r="J62">
         <v>3.38</v>
@@ -3158,7 +3191,7 @@
         <v>320</v>
       </c>
       <c r="I67">
-        <v>642.81000000000006</v>
+        <v>642.80999999999995</v>
       </c>
       <c r="J67">
         <v>2.5299999999999998</v>
@@ -3175,7 +3208,7 @@
         <v>545.79999999999995</v>
       </c>
       <c r="D68">
-        <v>3.06</v>
+        <v>3.0619494170000001</v>
       </c>
       <c r="E68">
         <v>600.63</v>
@@ -3207,7 +3240,7 @@
         <v>569.19000000000005</v>
       </c>
       <c r="D69">
-        <v>0.08</v>
+        <v>7.7243122999999997E-2</v>
       </c>
       <c r="E69">
         <v>603.82000000000005</v>
@@ -3222,7 +3255,7 @@
         <v>98</v>
       </c>
       <c r="I69">
-        <v>569.63000000000011</v>
+        <v>569.63</v>
       </c>
       <c r="J69">
         <v>3.78</v>
@@ -3414,7 +3447,7 @@
         <v>33</v>
       </c>
       <c r="I75">
-        <v>482.81</v>
+        <v>474.51</v>
       </c>
       <c r="J75">
         <v>5.05</v>
@@ -3425,13 +3458,13 @@
         <v>93</v>
       </c>
       <c r="B76">
-        <v>481.41</v>
+        <v>481.11</v>
       </c>
       <c r="C76">
         <v>478.42</v>
       </c>
       <c r="D76">
-        <v>0.62</v>
+        <v>0.55912369299999998</v>
       </c>
       <c r="E76">
         <v>600.34</v>
@@ -3446,7 +3479,7 @@
         <v>93</v>
       </c>
       <c r="I76">
-        <v>481.41</v>
+        <v>481.11</v>
       </c>
       <c r="J76">
         <v>5.05</v>
@@ -3478,7 +3511,7 @@
         <v>50</v>
       </c>
       <c r="I77">
-        <v>502.98</v>
+        <v>502.59</v>
       </c>
       <c r="J77">
         <v>5.05</v>
@@ -3527,7 +3560,7 @@
         <v>644.11</v>
       </c>
       <c r="D79">
-        <v>0.98</v>
+        <v>0.97927684199999998</v>
       </c>
       <c r="E79">
         <v>600.9</v>
@@ -3623,7 +3656,7 @@
         <v>718.89</v>
       </c>
       <c r="D82">
-        <v>3.52</v>
+        <v>3.515058786</v>
       </c>
       <c r="E82">
         <v>601</v>
@@ -3638,7 +3671,7 @@
         <v>866</v>
       </c>
       <c r="I82">
-        <v>745.07999999999993</v>
+        <v>745.08</v>
       </c>
       <c r="J82">
         <v>3.38</v>
@@ -3655,7 +3688,7 @@
         <v>606.36</v>
       </c>
       <c r="D83">
-        <v>0.36</v>
+        <v>0.35987182600000001</v>
       </c>
       <c r="E83">
         <v>600.11</v>
@@ -3751,7 +3784,7 @@
         <v>531.38</v>
       </c>
       <c r="D86">
-        <v>0.05</v>
+        <v>5.2665236999999997E-2</v>
       </c>
       <c r="E86">
         <v>601.97</v>
@@ -3766,7 +3799,7 @@
         <v>153</v>
       </c>
       <c r="I86">
-        <v>531.66000000000008</v>
+        <v>531.66</v>
       </c>
       <c r="J86">
         <v>5.05</v>
@@ -3783,7 +3816,7 @@
         <v>629.64</v>
       </c>
       <c r="D87">
-        <v>2.88</v>
+        <v>2.8782970849999998</v>
       </c>
       <c r="E87">
         <v>602.07000000000005</v>
@@ -3798,7 +3831,7 @@
         <v>170</v>
       </c>
       <c r="I87">
-        <v>648.30000000000007</v>
+        <v>648.29999999999995</v>
       </c>
       <c r="J87">
         <v>5.05</v>
@@ -3809,13 +3842,13 @@
         <v>105</v>
       </c>
       <c r="B88">
-        <v>617.59</v>
+        <v>608.1</v>
       </c>
       <c r="C88">
         <v>597.6</v>
       </c>
       <c r="D88">
-        <v>3.24</v>
+        <v>1.7266896890000001</v>
       </c>
       <c r="E88">
         <v>600.48</v>
@@ -3830,7 +3863,7 @@
         <v>167</v>
       </c>
       <c r="I88">
-        <v>617.58999999999992</v>
+        <v>608.1</v>
       </c>
       <c r="J88">
         <v>6.73</v>
@@ -3847,7 +3880,7 @@
         <v>550.03</v>
       </c>
       <c r="D89">
-        <v>0.1</v>
+        <v>0.101709076</v>
       </c>
       <c r="E89">
         <v>600.78</v>
@@ -3873,13 +3906,13 @@
         <v>107</v>
       </c>
       <c r="B90">
-        <v>484.24</v>
+        <v>483.85</v>
       </c>
       <c r="C90">
         <v>480.01</v>
       </c>
       <c r="D90">
-        <v>0.87</v>
+        <v>0.79363439099999999</v>
       </c>
       <c r="E90">
         <v>600.11</v>
@@ -3894,7 +3927,7 @@
         <v>60</v>
       </c>
       <c r="I90">
-        <v>484.24</v>
+        <v>483.85</v>
       </c>
       <c r="J90">
         <v>6.73</v>
@@ -3911,7 +3944,7 @@
         <v>525.84</v>
       </c>
       <c r="D91">
-        <v>3.67</v>
+        <v>3.6676070790000002</v>
       </c>
       <c r="E91">
         <v>600.08000000000004</v>
@@ -3943,7 +3976,7 @@
         <v>501.09</v>
       </c>
       <c r="D92">
-        <v>3.56</v>
+        <v>3.56421162</v>
       </c>
       <c r="E92">
         <v>600.79</v>
@@ -4054,7 +4087,7 @@
         <v>3</v>
       </c>
       <c r="I95">
-        <v>714.68000000000006</v>
+        <v>714.68</v>
       </c>
       <c r="J95">
         <v>1.92</v>
@@ -4086,7 +4119,7 @@
         <v>5</v>
       </c>
       <c r="I96">
-        <v>742.72</v>
+        <v>742.33</v>
       </c>
       <c r="J96">
         <v>1.92</v>
@@ -4182,7 +4215,7 @@
         <v>8</v>
       </c>
       <c r="I99">
-        <v>524.67000000000007</v>
+        <v>524.66999999999996</v>
       </c>
       <c r="J99">
         <v>2.89</v>
@@ -4246,7 +4279,7 @@
         <v>4</v>
       </c>
       <c r="I101">
-        <v>550</v>
+        <v>543.39</v>
       </c>
       <c r="J101">
         <v>2.89</v>
@@ -4310,7 +4343,7 @@
         <v>7</v>
       </c>
       <c r="I103">
-        <v>523.35</v>
+        <v>497.47</v>
       </c>
       <c r="J103">
         <v>3.84</v>
@@ -4374,7 +4407,7 @@
         <v>22</v>
       </c>
       <c r="I105">
-        <v>499.82000000000011</v>
+        <v>496.52</v>
       </c>
       <c r="J105">
         <v>3.84</v>
@@ -4438,7 +4471,7 @@
         <v>5</v>
       </c>
       <c r="I107">
-        <v>524.12</v>
+        <v>517.91</v>
       </c>
       <c r="J107">
         <v>3.84</v>
@@ -4470,7 +4503,7 @@
         <v>4</v>
       </c>
       <c r="I108">
-        <v>686.06999999999994</v>
+        <v>686.07</v>
       </c>
       <c r="J108">
         <v>2.89</v>
@@ -4502,7 +4535,7 @@
         <v>14</v>
       </c>
       <c r="I109">
-        <v>656.57999999999993</v>
+        <v>656.58</v>
       </c>
       <c r="J109">
         <v>2.89</v>
@@ -4583,7 +4616,7 @@
         <v>754.46</v>
       </c>
       <c r="D112">
-        <v>0.81</v>
+        <v>0.807257428</v>
       </c>
       <c r="E112">
         <v>600.70000000000005</v>
@@ -4630,7 +4663,7 @@
         <v>160</v>
       </c>
       <c r="I113">
-        <v>597.87</v>
+        <v>593.88</v>
       </c>
       <c r="J113">
         <v>4.33</v>
@@ -4641,13 +4674,13 @@
         <v>131</v>
       </c>
       <c r="B114">
-        <v>641.97</v>
+        <v>635.65</v>
       </c>
       <c r="C114">
         <v>612.27</v>
       </c>
       <c r="D114">
-        <v>4.63</v>
+        <v>3.6781247540000002</v>
       </c>
       <c r="E114">
         <v>600.09</v>
@@ -4662,7 +4695,7 @@
         <v>86</v>
       </c>
       <c r="I114">
-        <v>651.35</v>
+        <v>635.65</v>
       </c>
       <c r="J114">
         <v>4.33</v>
@@ -4673,13 +4706,13 @@
         <v>132</v>
       </c>
       <c r="B115">
-        <v>603.74</v>
+        <v>602.91</v>
       </c>
       <c r="C115">
         <v>601.26</v>
       </c>
       <c r="D115">
-        <v>0.41</v>
+        <v>0.27367268700000003</v>
       </c>
       <c r="E115">
         <v>600.07000000000005</v>
@@ -4694,7 +4727,7 @@
         <v>154</v>
       </c>
       <c r="I115">
-        <v>603.74</v>
+        <v>602.91</v>
       </c>
       <c r="J115">
         <v>4.33</v>
@@ -4726,7 +4759,7 @@
         <v>66</v>
       </c>
       <c r="I116">
-        <v>525.5</v>
+        <v>524.79999999999995</v>
       </c>
       <c r="J116">
         <v>4.33</v>
@@ -4758,7 +4791,7 @@
         <v>134</v>
       </c>
       <c r="I117">
-        <v>543.59</v>
+        <v>543.12</v>
       </c>
       <c r="J117">
         <v>4.33</v>
@@ -4769,13 +4802,13 @@
         <v>135</v>
       </c>
       <c r="B118">
-        <v>619.97</v>
+        <v>616.21</v>
       </c>
       <c r="C118">
         <v>609.1</v>
       </c>
       <c r="D118">
-        <v>1.75</v>
+        <v>1.1538274289999999</v>
       </c>
       <c r="E118">
         <v>603.61</v>
@@ -4790,7 +4823,7 @@
         <v>43</v>
       </c>
       <c r="I118">
-        <v>619.97</v>
+        <v>616.21</v>
       </c>
       <c r="J118">
         <v>5.76</v>
@@ -4801,13 +4834,13 @@
         <v>136</v>
       </c>
       <c r="B119">
-        <v>621.4</v>
+        <v>618.65</v>
       </c>
       <c r="C119">
         <v>611.09</v>
       </c>
       <c r="D119">
-        <v>1.66</v>
+        <v>1.2220156790000001</v>
       </c>
       <c r="E119">
         <v>605.80999999999995</v>
@@ -4822,7 +4855,7 @@
         <v>57</v>
       </c>
       <c r="I119">
-        <v>621.4</v>
+        <v>618.65</v>
       </c>
       <c r="J119">
         <v>5.77</v>
@@ -4854,7 +4887,7 @@
         <v>19</v>
       </c>
       <c r="I120">
-        <v>553.81000000000006</v>
+        <v>552.41</v>
       </c>
       <c r="J120">
         <v>5.76</v>
@@ -4871,7 +4904,7 @@
         <v>549.73</v>
       </c>
       <c r="D121">
-        <v>0.72</v>
+        <v>0.71699476299999998</v>
       </c>
       <c r="E121">
         <v>602.32000000000005</v>
@@ -4897,13 +4930,13 @@
         <v>139</v>
       </c>
       <c r="B122">
-        <v>519.91999999999996</v>
+        <v>511.61</v>
       </c>
       <c r="C122">
         <v>496.66</v>
       </c>
       <c r="D122">
-        <v>4.47</v>
+        <v>2.9221477299999998</v>
       </c>
       <c r="E122">
         <v>601.27</v>
@@ -4918,7 +4951,7 @@
         <v>41</v>
       </c>
       <c r="I122">
-        <v>522.55999999999995</v>
+        <v>511.61</v>
       </c>
       <c r="J122">
         <v>5.77</v>
@@ -4935,7 +4968,7 @@
         <v>818.59</v>
       </c>
       <c r="D123">
-        <v>0.82</v>
+        <v>0.819046465</v>
       </c>
       <c r="E123">
         <v>600.95000000000005</v>
@@ -4950,7 +4983,7 @@
         <v>744</v>
       </c>
       <c r="I123">
-        <v>825.8900000000001</v>
+        <v>825.35</v>
       </c>
       <c r="J123">
         <v>3.84</v>
@@ -4967,7 +5000,7 @@
         <v>752.19</v>
       </c>
       <c r="D124">
-        <v>4.99</v>
+        <v>4.9941267859999998</v>
       </c>
       <c r="E124">
         <v>600.08000000000004</v>
@@ -4999,7 +5032,7 @@
         <v>709.98</v>
       </c>
       <c r="D125">
-        <v>4.07</v>
+        <v>4.0736086900000004</v>
       </c>
       <c r="E125">
         <v>601.22</v>
@@ -5014,7 +5047,7 @@
         <v>853</v>
       </c>
       <c r="I125">
-        <v>740.13000000000011</v>
+        <v>740.13</v>
       </c>
       <c r="J125">
         <v>3.84</v>
@@ -5046,7 +5079,7 @@
         <v>565</v>
       </c>
       <c r="I126">
-        <v>755.15000000000009</v>
+        <v>755.15</v>
       </c>
       <c r="J126">
         <v>3.84</v>
@@ -5063,7 +5096,7 @@
         <v>754.41</v>
       </c>
       <c r="D127">
-        <v>1.63</v>
+        <v>1.633765353</v>
       </c>
       <c r="E127">
         <v>601.15</v>
@@ -5095,7 +5128,7 @@
         <v>654.08000000000004</v>
       </c>
       <c r="D128">
-        <v>3.09</v>
+        <v>3.0892092510000002</v>
       </c>
       <c r="E128">
         <v>601.71</v>
@@ -5110,7 +5143,7 @@
         <v>98</v>
       </c>
       <c r="I128">
-        <v>674.93000000000006</v>
+        <v>674.93</v>
       </c>
       <c r="J128">
         <v>5.77</v>
@@ -5121,13 +5154,13 @@
         <v>146</v>
       </c>
       <c r="B129">
-        <v>676.29</v>
+        <v>674.5</v>
       </c>
       <c r="C129">
         <v>657.77</v>
       </c>
       <c r="D129">
-        <v>2.74</v>
+        <v>2.4803558190000001</v>
       </c>
       <c r="E129">
         <v>601.28</v>
@@ -5142,7 +5175,7 @@
         <v>172</v>
       </c>
       <c r="I129">
-        <v>676.29</v>
+        <v>674.5</v>
       </c>
       <c r="J129">
         <v>5.76</v>
@@ -5153,13 +5186,13 @@
         <v>147</v>
       </c>
       <c r="B130">
-        <v>632.34</v>
+        <v>624.34</v>
       </c>
       <c r="C130">
         <v>616.35</v>
       </c>
       <c r="D130">
-        <v>2.5299999999999998</v>
+        <v>1.2797514169999999</v>
       </c>
       <c r="E130">
         <v>600.65</v>
@@ -5174,7 +5207,7 @@
         <v>150</v>
       </c>
       <c r="I130">
-        <v>633.63000000000011</v>
+        <v>624.34</v>
       </c>
       <c r="J130">
         <v>5.76</v>
@@ -5191,7 +5224,7 @@
         <v>596.42999999999995</v>
       </c>
       <c r="D131">
-        <v>3.32</v>
+        <v>3.318203923</v>
       </c>
       <c r="E131">
         <v>602.48</v>
@@ -5223,7 +5256,7 @@
         <v>606.19000000000005</v>
       </c>
       <c r="D132">
-        <v>0.78</v>
+        <v>0.77749042499999999</v>
       </c>
       <c r="E132">
         <v>604.6</v>
@@ -5249,13 +5282,13 @@
         <v>150</v>
       </c>
       <c r="B133">
-        <v>585.49</v>
+        <v>578.59</v>
       </c>
       <c r="C133">
         <v>562</v>
       </c>
       <c r="D133">
-        <v>4.01</v>
+        <v>2.86731537</v>
       </c>
       <c r="E133">
         <v>600.69000000000005</v>
@@ -5270,7 +5303,7 @@
         <v>231</v>
       </c>
       <c r="I133">
-        <v>585.49</v>
+        <v>578.59</v>
       </c>
       <c r="J133">
         <v>7.69</v>
@@ -5281,13 +5314,13 @@
         <v>151</v>
       </c>
       <c r="B134">
-        <v>602.62</v>
+        <v>599.54999999999995</v>
       </c>
       <c r="C134">
         <v>583.19000000000005</v>
       </c>
       <c r="D134">
-        <v>3.22</v>
+        <v>2.7287132019999998</v>
       </c>
       <c r="E134">
         <v>600.75</v>
@@ -5302,7 +5335,7 @@
         <v>90</v>
       </c>
       <c r="I134">
-        <v>602.62</v>
+        <v>599.54999999999995</v>
       </c>
       <c r="J134">
         <v>7.69</v>
@@ -5313,13 +5346,13 @@
         <v>152</v>
       </c>
       <c r="B135">
-        <v>614.46</v>
+        <v>610.54</v>
       </c>
       <c r="C135">
         <v>606.04999999999995</v>
       </c>
       <c r="D135">
-        <v>1.37</v>
+        <v>0.73541455099999997</v>
       </c>
       <c r="E135">
         <v>602.84</v>
@@ -5334,7 +5367,7 @@
         <v>149</v>
       </c>
       <c r="I135">
-        <v>614.46</v>
+        <v>610.54</v>
       </c>
       <c r="J135">
         <v>7.69</v>
@@ -5345,13 +5378,13 @@
         <v>153</v>
       </c>
       <c r="B136">
-        <v>658.07</v>
+        <v>649.89</v>
       </c>
       <c r="C136">
         <v>647.89</v>
       </c>
       <c r="D136">
-        <v>1.55</v>
+        <v>0.30774438799999998</v>
       </c>
       <c r="E136">
         <v>600.74</v>
@@ -5366,7 +5399,7 @@
         <v>50</v>
       </c>
       <c r="I136">
-        <v>669.29</v>
+        <v>649.89</v>
       </c>
       <c r="J136">
         <v>7.69</v>
@@ -5377,13 +5410,13 @@
         <v>154</v>
       </c>
       <c r="B137">
-        <v>651</v>
+        <v>638.62</v>
       </c>
       <c r="C137">
         <v>601.85</v>
       </c>
       <c r="D137">
-        <v>7.55</v>
+        <v>5.7577275999999999</v>
       </c>
       <c r="E137">
         <v>600.75</v>
@@ -5398,7 +5431,7 @@
         <v>16</v>
       </c>
       <c r="I137">
-        <v>651</v>
+        <v>638.62</v>
       </c>
       <c r="J137">
         <v>7.69</v>
@@ -5430,7 +5463,7 @@
         <v>3</v>
       </c>
       <c r="I138">
-        <v>792.17000000000007</v>
+        <v>785.89</v>
       </c>
       <c r="J138">
         <v>2.41</v>
@@ -5462,7 +5495,7 @@
         <v>2</v>
       </c>
       <c r="I139">
-        <v>841.63</v>
+        <v>838.78</v>
       </c>
       <c r="J139">
         <v>2.41</v>
@@ -5526,7 +5559,7 @@
         <v>4</v>
       </c>
       <c r="I141">
-        <v>829.84</v>
+        <v>827.69</v>
       </c>
       <c r="J141">
         <v>2.41</v>
@@ -5558,7 +5591,7 @@
         <v>9</v>
       </c>
       <c r="I142">
-        <v>920.12</v>
+        <v>920.43</v>
       </c>
       <c r="J142">
         <v>2.41</v>
@@ -5590,7 +5623,7 @@
         <v>4</v>
       </c>
       <c r="I143">
-        <v>693.63</v>
+        <v>692.41</v>
       </c>
       <c r="J143">
         <v>3.61</v>
@@ -5622,7 +5655,7 @@
         <v>5</v>
       </c>
       <c r="I144">
-        <v>700.28</v>
+        <v>697.42</v>
       </c>
       <c r="J144">
         <v>3.61</v>
@@ -5654,7 +5687,7 @@
         <v>7</v>
       </c>
       <c r="I145">
-        <v>687.62</v>
+        <v>682.62</v>
       </c>
       <c r="J145">
         <v>3.61</v>
@@ -5686,7 +5719,7 @@
         <v>2</v>
       </c>
       <c r="I146">
-        <v>670.25</v>
+        <v>657.99</v>
       </c>
       <c r="J146">
         <v>3.61</v>
@@ -5718,7 +5751,7 @@
         <v>3</v>
       </c>
       <c r="I147">
-        <v>701.96</v>
+        <v>686.3</v>
       </c>
       <c r="J147">
         <v>3.61</v>
@@ -5750,7 +5783,7 @@
         <v>8</v>
       </c>
       <c r="I148">
-        <v>656.73</v>
+        <v>640.52</v>
       </c>
       <c r="J148">
         <v>4.8099999999999996</v>
@@ -5814,7 +5847,7 @@
         <v>13</v>
       </c>
       <c r="I150">
-        <v>653.29</v>
+        <v>651.82000000000005</v>
       </c>
       <c r="J150">
         <v>4.8099999999999996</v>
@@ -5846,7 +5879,7 @@
         <v>14</v>
       </c>
       <c r="I151">
-        <v>612.67000000000007</v>
+        <v>608.37</v>
       </c>
       <c r="J151">
         <v>4.8099999999999996</v>
@@ -5878,7 +5911,7 @@
         <v>6</v>
       </c>
       <c r="I152">
-        <v>602.54000000000008</v>
+        <v>591.86</v>
       </c>
       <c r="J152">
         <v>4.8099999999999996</v>
@@ -5910,7 +5943,7 @@
         <v>194</v>
       </c>
       <c r="I153">
-        <v>848.59</v>
+        <v>840.93</v>
       </c>
       <c r="J153">
         <v>3.61</v>
@@ -5927,7 +5960,7 @@
         <v>916.28</v>
       </c>
       <c r="D154">
-        <v>0.59</v>
+        <v>0.58696524900000002</v>
       </c>
       <c r="E154">
         <v>602.89</v>
@@ -5942,7 +5975,7 @@
         <v>311</v>
       </c>
       <c r="I154">
-        <v>923.67</v>
+        <v>921.69</v>
       </c>
       <c r="J154">
         <v>3.61</v>
@@ -5959,7 +5992,7 @@
         <v>810.25</v>
       </c>
       <c r="D155">
-        <v>0.47</v>
+        <v>0.46680179399999999</v>
       </c>
       <c r="E155">
         <v>600.13</v>
@@ -6006,7 +6039,7 @@
         <v>3</v>
       </c>
       <c r="I156">
-        <v>813.12</v>
+        <v>812.36</v>
       </c>
       <c r="J156">
         <v>3.61</v>
@@ -6023,7 +6056,7 @@
         <v>915.85</v>
       </c>
       <c r="D157">
-        <v>0.78</v>
+        <v>0.77572290700000002</v>
       </c>
       <c r="E157">
         <v>602.70000000000005</v>
@@ -6038,7 +6071,7 @@
         <v>590</v>
       </c>
       <c r="I157">
-        <v>923.24</v>
+        <v>923.01</v>
       </c>
       <c r="J157">
         <v>3.61</v>
@@ -6070,7 +6103,7 @@
         <v>10</v>
       </c>
       <c r="I158">
-        <v>714.23</v>
+        <v>711.09</v>
       </c>
       <c r="J158">
         <v>5.41</v>
@@ -6081,13 +6114,13 @@
         <v>176</v>
       </c>
       <c r="B159">
-        <v>730.05</v>
+        <v>727.09</v>
       </c>
       <c r="C159">
         <v>716.95</v>
       </c>
       <c r="D159">
-        <v>1.79</v>
+        <v>1.3946003929999999</v>
       </c>
       <c r="E159">
         <v>605.47</v>
@@ -6102,7 +6135,7 @@
         <v>83</v>
       </c>
       <c r="I159">
-        <v>730.05</v>
+        <v>727.09</v>
       </c>
       <c r="J159">
         <v>5.41</v>
@@ -6113,13 +6146,13 @@
         <v>177</v>
       </c>
       <c r="B160">
-        <v>707.06</v>
+        <v>700.47</v>
       </c>
       <c r="C160">
         <v>692.65</v>
       </c>
       <c r="D160">
-        <v>2.04</v>
+        <v>1.116393279</v>
       </c>
       <c r="E160">
         <v>603.51</v>
@@ -6134,7 +6167,7 @@
         <v>96</v>
       </c>
       <c r="I160">
-        <v>707.06000000000006</v>
+        <v>700.47</v>
       </c>
       <c r="J160">
         <v>5.41</v>
@@ -6145,13 +6178,13 @@
         <v>178</v>
       </c>
       <c r="B161">
-        <v>729.06</v>
+        <v>723.92</v>
       </c>
       <c r="C161">
         <v>710.72</v>
       </c>
       <c r="D161">
-        <v>2.52</v>
+        <v>1.8234059010000001</v>
       </c>
       <c r="E161">
         <v>605.01</v>
@@ -6166,7 +6199,7 @@
         <v>98</v>
       </c>
       <c r="I161">
-        <v>729.06000000000006</v>
+        <v>723.92</v>
       </c>
       <c r="J161">
         <v>5.41</v>
@@ -6183,7 +6216,7 @@
         <v>751.52</v>
       </c>
       <c r="D162">
-        <v>0.36</v>
+        <v>0.357985734</v>
       </c>
       <c r="E162">
         <v>605.46</v>
@@ -6198,7 +6231,7 @@
         <v>115</v>
       </c>
       <c r="I162">
-        <v>761.05</v>
+        <v>754.45</v>
       </c>
       <c r="J162">
         <v>5.41</v>
@@ -6209,13 +6242,13 @@
         <v>180</v>
       </c>
       <c r="B163">
-        <v>607.49</v>
+        <v>602.66</v>
       </c>
       <c r="C163">
         <v>600.49</v>
       </c>
       <c r="D163">
-        <v>1.1499999999999999</v>
+        <v>0.36007035500000001</v>
       </c>
       <c r="E163">
         <v>600.27</v>
@@ -6230,7 +6263,7 @@
         <v>35</v>
       </c>
       <c r="I163">
-        <v>607.49</v>
+        <v>602.66</v>
       </c>
       <c r="J163">
         <v>7.2</v>
@@ -6241,13 +6274,13 @@
         <v>181</v>
       </c>
       <c r="B164">
-        <v>640.01</v>
+        <v>639.85</v>
       </c>
       <c r="C164">
         <v>622.15</v>
       </c>
       <c r="D164">
-        <v>2.79</v>
+        <v>2.7662733450000001</v>
       </c>
       <c r="E164">
         <v>600.26</v>
@@ -6262,7 +6295,7 @@
         <v>13</v>
       </c>
       <c r="I164">
-        <v>640.01</v>
+        <v>639.85</v>
       </c>
       <c r="J164">
         <v>7.2</v>
@@ -6279,7 +6312,7 @@
         <v>707.64</v>
       </c>
       <c r="D165">
-        <v>0.11</v>
+        <v>0.112924171</v>
       </c>
       <c r="E165">
         <v>600.26</v>
@@ -6294,7 +6327,7 @@
         <v>32</v>
       </c>
       <c r="I165">
-        <v>712.56</v>
+        <v>711.65</v>
       </c>
       <c r="J165">
         <v>7.2</v>
@@ -6305,13 +6338,13 @@
         <v>183</v>
       </c>
       <c r="B166">
-        <v>671.71</v>
+        <v>668.83</v>
       </c>
       <c r="C166">
         <v>659.96</v>
       </c>
       <c r="D166">
-        <v>1.75</v>
+        <v>1.326196492</v>
       </c>
       <c r="E166">
         <v>600.26</v>
@@ -6326,7 +6359,7 @@
         <v>18</v>
       </c>
       <c r="I166">
-        <v>671.71</v>
+        <v>668.83</v>
       </c>
       <c r="J166">
         <v>7.2</v>
@@ -6358,7 +6391,7 @@
         <v>17</v>
       </c>
       <c r="I167">
-        <v>680.16000000000008</v>
+        <v>671.05</v>
       </c>
       <c r="J167">
         <v>7.2</v>
@@ -6375,7 +6408,7 @@
         <v>913.4</v>
       </c>
       <c r="D168">
-        <v>3.38</v>
+        <v>3.3817447139999999</v>
       </c>
       <c r="E168">
         <v>601.26</v>
@@ -6390,7 +6423,7 @@
         <v>366</v>
       </c>
       <c r="I168">
-        <v>951.74</v>
+        <v>945.37</v>
       </c>
       <c r="J168">
         <v>4.8099999999999996</v>
@@ -6407,7 +6440,7 @@
         <v>935.18</v>
       </c>
       <c r="D169">
-        <v>0.73</v>
+        <v>0.73136815700000002</v>
       </c>
       <c r="E169">
         <v>600.51</v>
@@ -6422,7 +6455,7 @@
         <v>476</v>
       </c>
       <c r="I169">
-        <v>947.92</v>
+        <v>943.14</v>
       </c>
       <c r="J169">
         <v>4.8099999999999996</v>
@@ -6439,7 +6472,7 @@
         <v>975.82</v>
       </c>
       <c r="D170">
-        <v>2.71</v>
+        <v>2.7137501990000001</v>
       </c>
       <c r="E170">
         <v>601.42999999999995</v>
@@ -6471,7 +6504,7 @@
         <v>892.04</v>
       </c>
       <c r="D171">
-        <v>3.81</v>
+        <v>3.8128100059999999</v>
       </c>
       <c r="E171">
         <v>600.80999999999995</v>
@@ -6486,7 +6519,7 @@
         <v>313</v>
       </c>
       <c r="I171">
-        <v>927.9</v>
+        <v>927.67</v>
       </c>
       <c r="J171">
         <v>4.8099999999999996</v>
@@ -6503,7 +6536,7 @@
         <v>911.31</v>
       </c>
       <c r="D172">
-        <v>0.6</v>
+        <v>0.59556922700000003</v>
       </c>
       <c r="E172">
         <v>600.36</v>
@@ -6518,7 +6551,7 @@
         <v>469</v>
       </c>
       <c r="I172">
-        <v>918.23</v>
+        <v>916.77</v>
       </c>
       <c r="J172">
         <v>4.8099999999999996</v>
@@ -6529,13 +6562,13 @@
         <v>190</v>
       </c>
       <c r="B173">
-        <v>812.73</v>
+        <v>805.24</v>
       </c>
       <c r="C173">
         <v>771.33</v>
       </c>
       <c r="D173">
-        <v>5.09</v>
+        <v>4.2111668570000003</v>
       </c>
       <c r="E173">
         <v>603.11</v>
@@ -6550,7 +6583,7 @@
         <v>38</v>
       </c>
       <c r="I173">
-        <v>812.73</v>
+        <v>805.24</v>
       </c>
       <c r="J173">
         <v>7.2</v>
@@ -6561,13 +6594,13 @@
         <v>191</v>
       </c>
       <c r="B174">
-        <v>766.09</v>
+        <v>761.73</v>
       </c>
       <c r="C174">
         <v>739.15</v>
       </c>
       <c r="D174">
-        <v>3.52</v>
+        <v>2.9643049370000001</v>
       </c>
       <c r="E174">
         <v>600.58000000000004</v>
@@ -6582,7 +6615,7 @@
         <v>91</v>
       </c>
       <c r="I174">
-        <v>766.09</v>
+        <v>761.73</v>
       </c>
       <c r="J174">
         <v>7.2</v>
@@ -6593,13 +6626,13 @@
         <v>192</v>
       </c>
       <c r="B175">
-        <v>774.44</v>
+        <v>770.52</v>
       </c>
       <c r="C175">
         <v>739.65</v>
       </c>
       <c r="D175">
-        <v>4.49</v>
+        <v>4.0063852979999997</v>
       </c>
       <c r="E175">
         <v>600.79999999999995</v>
@@ -6614,7 +6647,7 @@
         <v>74</v>
       </c>
       <c r="I175">
-        <v>774.44</v>
+        <v>770.52</v>
       </c>
       <c r="J175">
         <v>7.2</v>
@@ -6625,13 +6658,13 @@
         <v>193</v>
       </c>
       <c r="B176">
-        <v>845.64</v>
+        <v>841.73</v>
       </c>
       <c r="C176">
         <v>795.01</v>
       </c>
       <c r="D176">
-        <v>5.99</v>
+        <v>5.5504734300000003</v>
       </c>
       <c r="E176">
         <v>600.34</v>
@@ -6646,7 +6679,7 @@
         <v>83</v>
       </c>
       <c r="I176">
-        <v>845.6400000000001</v>
+        <v>841.73</v>
       </c>
       <c r="J176">
         <v>7.2</v>
@@ -6657,13 +6690,13 @@
         <v>194</v>
       </c>
       <c r="B177">
-        <v>752.32</v>
+        <v>745.64</v>
       </c>
       <c r="C177">
         <v>725.74</v>
       </c>
       <c r="D177">
-        <v>3.53</v>
+        <v>2.6688482379999998</v>
       </c>
       <c r="E177">
         <v>602.59</v>
@@ -6678,7 +6711,7 @@
         <v>109</v>
       </c>
       <c r="I177">
-        <v>752.31999999999994</v>
+        <v>745.64</v>
       </c>
       <c r="J177">
         <v>7.2</v>
@@ -6689,13 +6722,13 @@
         <v>195</v>
       </c>
       <c r="B178">
-        <v>757.25</v>
+        <v>751.65</v>
       </c>
       <c r="C178">
         <v>727.07</v>
       </c>
       <c r="D178">
-        <v>3.99</v>
+        <v>3.2701390269999999</v>
       </c>
       <c r="E178">
         <v>600.66999999999996</v>
@@ -6710,7 +6743,7 @@
         <v>13</v>
       </c>
       <c r="I178">
-        <v>757.25</v>
+        <v>751.65</v>
       </c>
       <c r="J178">
         <v>9.61</v>
@@ -6721,13 +6754,13 @@
         <v>196</v>
       </c>
       <c r="B179">
-        <v>730.57</v>
+        <v>726.03</v>
       </c>
       <c r="C179">
         <v>677.36</v>
       </c>
       <c r="D179">
-        <v>7.28</v>
+        <v>6.7035797419999996</v>
       </c>
       <c r="E179">
         <v>600.66999999999996</v>
@@ -6742,7 +6775,7 @@
         <v>16</v>
       </c>
       <c r="I179">
-        <v>730.56999999999994</v>
+        <v>726.03</v>
       </c>
       <c r="J179">
         <v>9.61</v>
@@ -6753,13 +6786,13 @@
         <v>197</v>
       </c>
       <c r="B180">
-        <v>732.35</v>
+        <v>726.78</v>
       </c>
       <c r="C180">
         <v>709.23</v>
       </c>
       <c r="D180">
-        <v>3.16</v>
+        <v>2.414761001</v>
       </c>
       <c r="E180">
         <v>600.67999999999995</v>
@@ -6774,7 +6807,7 @@
         <v>37</v>
       </c>
       <c r="I180">
-        <v>732.35</v>
+        <v>726.78</v>
       </c>
       <c r="J180">
         <v>9.61</v>
@@ -6785,13 +6818,13 @@
         <v>198</v>
       </c>
       <c r="B181">
-        <v>718.46</v>
+        <v>715.31</v>
       </c>
       <c r="C181">
         <v>681.96</v>
       </c>
       <c r="D181">
-        <v>5.08</v>
+        <v>4.6623142409999998</v>
       </c>
       <c r="E181">
         <v>600.66</v>
@@ -6806,7 +6839,7 @@
         <v>29</v>
       </c>
       <c r="I181">
-        <v>718.46</v>
+        <v>715.31</v>
       </c>
       <c r="J181">
         <v>9.61</v>
@@ -6817,13 +6850,13 @@
         <v>199</v>
       </c>
       <c r="B182">
-        <v>653.54999999999995</v>
+        <v>651.16</v>
       </c>
       <c r="C182">
         <v>612.07000000000005</v>
       </c>
       <c r="D182">
-        <v>6.35</v>
+        <v>6.003132871</v>
       </c>
       <c r="E182">
         <v>600.76</v>
@@ -6838,7 +6871,7 @@
         <v>21</v>
       </c>
       <c r="I182">
-        <v>653.54999999999995</v>
+        <v>651.16</v>
       </c>
       <c r="J182">
         <v>9.61</v>
